--- a/src/ritvik/tasks.xlsx
+++ b/src/ritvik/tasks.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,13 +412,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -439,20 +438,25 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>task</t>
+          <t>task_name</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>task_description</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>deadline</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>task_id</t>
         </is>
@@ -461,370 +465,2783 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Yeshwanth</t>
+          <t>Kalakonda Harshith Rao</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dinesh</t>
+          <t>Abhilash</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-06-30T10:53:00</t>
+          <t>2025-07-03T12:42:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>add API integration to ritvik</t>
+          <t>Testing ritvik 2uwdhsjh</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-02T17:00:00</t>
+          <t>Ritvik testing</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>incomplete</t>
+          <t>2025-07-02T16:03:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1ea995f5-68bf-49d5-858c-fc94e0d64d60</t>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>7aacb048-4225-468d-8a3b-93a8d4b1b29f</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Yeshwanth</t>
+          <t>Abhilash</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dinesh</t>
+          <t>Kalakonda Harshith Rao</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-06-30T10:53:00</t>
+          <t>2025-07-02T16:03:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>add API integration to ritvik</t>
+          <t>Testing</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-02T17:00:00</t>
+          <t>Ritvik</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>incomplete</t>
+          <t>2025-07-02T16:03:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1333c684-cd8d-4f55-a15b-5b7aa28f31d6</t>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>7aacb048-4225-468d-8a3b-93a8d4b1b29f</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>harshith@divami.com</t>
+          <t>Harshith Rao</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kalakonda Harshith Rao integrate ritvik to chat</t>
+          <t>Abhilash</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-06-30T12:22:48.050853</t>
+          <t>2025-07-03T12:52:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>Testing with harshith</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-06-30T12:22:48.050853</t>
+          <t>Final round of testing</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>incomplete</t>
+          <t>2025-07-03T20:00:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4db0a02f-0843-41b4-ac54-d05c3dd7cb30</t>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ff0ace9b-ae23-4546-bddc-415872f9ec79</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>harshith@divami.com</t>
+          <t>Yeshwanth</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kalakonda Harshith Rao</t>
+          <t>harshit</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-06-30T12:42:05.666525</t>
+          <t>2025-07-03T12:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>integrate ritvik to chat bot</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2025-06-30T12:42:05.666525</t>
+          <t>testing-divami-chatbot</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>incomplete</t>
+          <t>2025-07-04T13:01:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>a5911873-8946-423d-b2a2-bbc4331e34a9</t>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>f67f8318-7b6b-410d-9104-350885693425</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>harshith@divami.com</t>
+          <t>Yeshwanth Reddy Yerraguntla</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kalakonda Harshith Rao</t>
+          <t>Harshit</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-06-30T12:47:49.042524</t>
+          <t>2025-07-03T13:03:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>integrate ritvik to chat bot</t>
+          <t>testing-2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-30T12:47:49.042524</t>
+          <t>ljbou</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>incomplete</t>
+          <t>2025-07-03T13:03:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>abe2a95a-ce73-45b3-9d9f-bf91e665f72f</t>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5a645cf2-ab08-46f2-83cc-3c1fb6a0755e</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>harshith@divami.com</t>
+          <t>Yeshwanth Reddy Yerraguntla</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>abhilash</t>
+          <t>Harshith</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-06-30T12:49:00.193839</t>
+          <t>2025-07-03T13:13:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>integrate ritvik to chat bot</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2025-06-30T12:49:00.193839</t>
+          <t>Testing chatbot divami from ritvik testing space</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>incomplete</t>
+          <t>2025-07-03T13:13:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>8fdc3388-392d-4351-830d-7d61509b4ee3</t>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>6ba5ab1f-cbd5-4b80-ac91-013ab2f1c77d</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>harshith@divami.com</t>
+          <t>Yeshwanth Reddy Yerraguntla</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>kalakonda harshith rao</t>
+          <t>Abhilash</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-06-30T13:20:08.536362</t>
+          <t>2025-07-03T13:16:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>add api integration to ritvik</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2025-06-30T13:20:08.536362</t>
+          <t>testing chatbot divami from abhilash 1-1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>complete</t>
+          <t>2025-07-03T13:16:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>47788f2a-32ac-4c2e-89c5-95fb966c8fbc</t>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>51360750-4c34-419b-996e-84892987ee9b</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>harshith@divami.com</t>
+          <t>Yeshwanth Reddy Yerraguntla</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>kalakonda harshith rao</t>
+          <t>Abhliash</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-06-30T15:03:22.398876</t>
+          <t>2025-07-03T13:17:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>add api integration to ritvik</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2025-06-30T15:03:22.398876</t>
+          <t>testing -2</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>incomplete</t>
+          <t>2025-07-03T13:17:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>713a5524-6cdb-4650-b22f-8f6775385b5d</t>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>c60aac33-ca0f-4fa1-8852-3304b88ba9d9</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>harshith@divami.com</t>
+          <t>Harshith</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>kalakonda harshith rao</t>
+          <t>Abhilash</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-06-30T15:08:23.843059</t>
+          <t>2025-07-03T13:19:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>add api integration to ritvik</t>
+          <t>Testing 3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-30T15:08:23.843059</t>
+          <t>uwhfjdjfkd</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>incomplete</t>
+          <t>2025-07-03T13:19:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3bfa79fb-fa3c-4504-a04a-5f63ede73d50</t>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>8098dd9d-7f5b-4799-b6cc-619348d56e56</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>harshith@divami.com</t>
+          <t>Kalakonda Harshith Rao</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>kalakonda harshith rao</t>
+          <t>Abhilash Adunuri</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-06-30T17:13:58.821762</t>
+          <t>2025-07-03T16:14:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>add api integration to ritvik</t>
+          <t>Ritvik testing message</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-30T17:13:58.821762</t>
+          <t>Sample testing</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>incomplete</t>
+          <t>2025-07-03T16:14:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>e6fe8770-bf79-4339-8ca9-450c91c938ed</t>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2f57ade6-ac5d-4baf-a32e-3d0bf0e6b8e9</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-07-03T16:19:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Ritvik testing the message trigger</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nothing</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-07-03T16:19:00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>682c5427-6f15-45e5-90e4-2250ae735ea4</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-07-03T16:29:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>testing ritvik fr now</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>unkniwn</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-07-03T16:29:00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>60d45608-ba4e-41b4-933d-9a2b3de59f0e</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025-07-03T16:37:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-07-03T16:37:00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>eb4aab09-136e-480d-ba48-27786cab8a31</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2025-07-03T16:53:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>rd6ftiol</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>rxftcnjm</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-07-03T16:53:00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2fe9a7ad-7eeb-4586-a501-5108f98178a5</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2025-07-03T17:25:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>sdfghjkl</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>sdfghjkl</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-07-03T17:25:00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>3af5f965-5986-41f3-b069-d89d340c8875</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025-07-03T17:33:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>fghjk</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>dxdfyj</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-07-03T17:33:00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>f735bf3a-905d-4365-a231-f501fa467a1e</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025-07-03T17:42:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Testing chat</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>dflkwd</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-07-03T17:42:00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>ed302306-3d84-434f-bebf-2d01dd227373</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025-07-03T17:45:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Testing Chat</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ihdkjds</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-07-03T17:45:00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>550144de-05fc-4376-9e1e-66c1dae2ee5e</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2025-07-03T17:56:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>sdfghjkl;</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>qwtgjkl</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-07-03T17:56:00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>ad253c06-b02a-4c6c-a25f-9ae313bf0658</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2025-07-03T17:59:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>xcvjkl</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>edfghjkl;</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-07-03T17:59:00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>097b7656-ff5f-4613-98f1-51609ee90725</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-07-03T18:04:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>bhsbivcSD</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>sdzvs SXZ</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-07-03T18:04:00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>79599d49-fd85-4ccb-a496-5dcade73ac73</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025-07-03T18:12:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>WAZEXRCVTNML,</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>AWERCVTNKML,</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-07-03T18:12:00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>6e1bf651-240a-4d26-9b8a-656e66cc3cbb</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025-07-03T18:14:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>XCVJKL</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ESRDTYUNLM</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-07-03T18:14:00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>fd9d1929-ac57-49a4-94e8-5b20fba1a2bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2025-07-03T18:17:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>XDCV</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ERVTYNKML,</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-07-03T18:17:00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>705b251e-b6e8-478f-9dba-3a0e03ff7c5c</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2025-07-03T18:23:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>cu,;</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>rdftyghuijl,;.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-07-03T18:23:00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>ea947d2e-1d8c-4cf3-b13c-d028011552a0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2025-07-03T18:26:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>wzexrctvynuio</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>esrdftyghuijoklp</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-07-03T18:26:00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>88bcf381-01ad-4442-9c34-3172351003d0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2025-07-03T18:35:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>xerctvybunimk</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>xrctvybnukml,</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-07-03T18:35:00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>123580ba-430a-49b5-8770-9ab3e2d6dfb6</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2025-07-03T18:40:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>iygwhskbnxz,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>iuewjs,m</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2025-07-03T18:40:00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>df06b3ff-783c-4874-9fbb-de831fb27c43</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2025-07-03T18:43:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2025-07-03T18:43:00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>d19a071b-0fae-4995-aabe-6eb97874ec09</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2025-07-03T18:44:00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2025-07-03T18:44:00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>3dd93a66-9f0f-4c47-8166-3106b179713c</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2025-07-03T18:54:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ertyui</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>edrynuiml</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2025-07-03T18:54:00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>dee2dca5-ec0e-4b7f-91c1-2f5ccbb0d36e</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Yeshwanth Reddy Yerraguntla</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2025-07-03T19:00:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>triggering test</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2025-07-03T19:00:00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>690e4cc4-c47e-42a2-90d3-e1a70c7ba037</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2025-07-03T19:07:00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2025-07-03T19:07:00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>829b8bc4-b2d3-42e8-bed3-f32a0c212cdd</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2025-07-03T19:11:00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2025-07-03T19:11:00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>a285537f-de87-4984-beb1-bf9b6cfc5f07</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2025-07-03T19:13:00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2025-07-03T19:13:00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>e9d1e383-de99-4da6-8e3d-02f918c91751</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2025-07-03T19:15:00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2025-07-03T19:15:00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>7fbfef75-b3ac-4f83-b442-8eceb2ceb5d1</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2025-07-03T19:17:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>fghjk</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>cvcbn</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2025-07-03T19:17:00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>b82ab980-fb8d-4696-bd51-1edac46e62af</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2025-07-03T21:05:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>dvdvd</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>dvevdc</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2025-07-03T21:05:00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>c7e55519-f0c8-47a3-b564-adec407d7a58</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2025-07-03T21:13:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>jbqfkjbw</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>qkjb</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2025-07-03T21:13:00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>1d095aee-bc54-4da5-85b7-eda4c001f4bc</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2025-07-03T21:22:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>jnjznjntdihu</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>fjg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2025-07-03T21:22:00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>01e5143c-e9fe-4fa7-af6c-ea5c294fee2a</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2025-07-03T21:25:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>dgxhfcgjh</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>jg,gdkeflr</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2025-07-03T21:25:00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>b78df0eb-87b3-4bb1-9e14-b41e24974067</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2025-07-03T21:34:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>cusavdkhbsnjg</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>dxacfsvgdjhnjg.h,</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2025-07-03T21:34:00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>83392346-dbaf-4d0d-af91-5c9366243b28</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2025-07-03T21:39:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>kfkjkfjgf</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>eiijreiokdf</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2025-07-03T21:39:00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>17fefdc2-f406-4285-a9f5-a85e1ca0fec4</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2025-07-03T21:44:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>iydiyfetli</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>uksk</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2025-07-03T21:44:00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>8251d266-bf31-4b3b-bcbf-cd8db7512926</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2025-07-03T21:50:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>ghjkm,</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>vyhujn</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2025-07-03T21:50:00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>a9c23462-0184-41d4-af9d-ef78224342bc</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Yeshwanth Reddy Yerraguntla</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2025-07-03T21:51:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>vhjbknm</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>jbjn</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2025-07-03T21:51:00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>d8b2524f-ad42-4e0c-81f2-b7c08ff55dbe</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2025-07-04T10:56:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>hcjkjl</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>jhkjbn</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2025-07-04T10:56:00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>47d49751-2179-476b-a5ba-565293a08d43</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2025-07-04T12:05:00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Ritvik Testing</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2025-07-04T12:05:00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>88cd729c-8ff9-457e-84e0-3d27167d21f7</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2025-07-04T12:11:00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>xcvtyuim</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>dxfcvghbnjkml</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2025-07-04T12:11:00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>8bb50980-780f-47b5-93ed-4631e96d09c6</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2025-07-04T12:14:00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2025-07-04T12:14:00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>c7af2b46-2e4e-4b0d-bb00-2eb1380ca999</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2025-07-04T12:25:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>bvoiyfv</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>qwd ck</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2025-07-04T12:25:00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>f43a1239-7e5b-49e3-aa67-8a8ed6124d76</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Amulya Maggidi</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2025-07-04T12:29:00</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>xfcvghbnjk</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>xfcghbnjkm</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2025-07-04T12:29:00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>5a166eeb-f416-40e8-a186-a757c54c366b</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2025-07-04T12:43:00</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>wertyjkm</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>dfvghbnjkm,</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2025-07-04T12:43:00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>a3818f59-df26-47b2-b0ec-f882a185f011</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2025-07-04T12:49:00</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2025-07-04T12:49:00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2351f759-9dbe-4360-b130-45539fa2e430</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2025-07-04T12:54:00</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2025-07-04T12:54:00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>4414e8c3-f4c4-44e7-badc-1df89b4a67fd</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2025-07-04T13:49:00</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2025-07-04T13:49:00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>e4f2cd11-566b-45d2-ba2a-52a5f1d6229f</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Abhilash Adunuri</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2025-07-04T14:44:00</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>fghnjm</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>kjnh</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2025-07-04T14:44:00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>5ee05a29-88cb-4fe2-94bd-8765cbeb313d</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Amulya Maggidi</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2025-07-04T14:54:00</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>sf</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>jsv</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2025-07-04T14:54:00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>39d605ff-53ee-4549-8c58-4a5aa994735c</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Amulya Maggidi</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2025-07-04T14:59:00</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>nm,ij</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>oje</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2025-07-04T14:59:00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>40b665e5-6648-4b96-bc12-ff7d1b872d54</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Amulya Maggidi</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2025-07-04T15:05:00</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>tetsing email</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>hjn</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2025-07-04T15:05:00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>e1769d11-8910-4914-8048-2be06ee92bfd</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Amulya Maggidi</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2025-07-04T15:08:00</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>jk</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>knnn</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2025-07-04T15:08:00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>c6c437a7-57ae-4b81-abe8-c110bfffc552</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Amulya Maggidi</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2025-07-04T15:14:00</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>vgsvhbf</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>gd</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2025-07-04T15:14:00</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>34127463-5708-4fba-80cc-b052262c2b2c</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Amulya Maggidi</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2025-07-04T15:21:00</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>quizbot</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>hdiuw</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2025-07-04T15:21:00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>b5a84dd5-4155-4043-bbab-6e34bff8b8bc</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Amulya Maggidi</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2025-07-04T15:24:00</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>ertyuio</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>sdfghjkl</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2025-07-04T15:24:00</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2ca7935b-24d4-4885-bdf3-8738984dbe1f</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Amulya Maggidi</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2025-07-04T15:39:00</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>hjbk,</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>kjf,mv</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2025-07-04T15:39:00</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>bd636f37-b712-4918-84aa-eab2c146bbe8</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Mannam SaiAnitha</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2025-07-04T15:44:00</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>waste</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>waste nvuu</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2025-07-04T15:44:00</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>60f24326-3688-49fd-a727-f934f09bd932</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Ganesh Danuri</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Kalakonda Harshith Rao</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2025-07-04T15:53:00</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2025-07-04T16:45:00</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>d14ba136-30ca-4992-871f-1a87edfd0fa2</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Ganesh Danuri</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Yeshwanth Reddy Yerraguntla</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2025-07-04T15:54:00</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>PYTHON SESSIONS</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2025-07-04T17:00:00</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>61eaec70-99cb-4992-8a63-d532b6a83bcb</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Ganesh Danuri</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Yeshwanth Reddy Yerraguntla</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2025-07-04T15:57:00</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>HI</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>HI</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2025-07-04T17:30:00</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>incomplete</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>3dc1efe2-5c3b-4572-880c-51dec5b81e16</t>
         </is>
       </c>
     </row>
